--- a/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1A5456-3170-4CFA-B559-F4302E3C0190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="412">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1267,12 +1268,15 @@
   </si>
   <si>
     <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1986,7 +1990,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2033,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2097,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2157,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2223,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2286,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2384,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2443,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2508,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2551,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2626,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2812,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2878,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2936,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +3002,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3058,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3133,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,7 +3176,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,7 +3242,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3298,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3377,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3390,26 +3394,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K673" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K673"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K674" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K674" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3716,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3726,7 +3730,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3734,34 +3738,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K673"/>
+  <dimension ref="A2:K674"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A573" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A579" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I588" sqref="I588"/>
+      <selection pane="bottomLeft" activeCell="B577" sqref="B577:B578"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3784,7 +3788,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3804,7 +3808,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3826,7 +3830,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3834,7 +3838,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3847,7 +3851,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3864,7 +3868,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3908,7 +3912,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.2460000000000377</v>
+        <v>6.9960000000000377</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3918,12 +3922,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.074999999999989</v>
+        <v>45.824999999999989</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>68</v>
       </c>
@@ -3941,7 +3945,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36357</v>
       </c>
@@ -3961,7 +3965,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -3981,7 +3985,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -4002,7 +4006,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A16" si="0">EDATE(A13,1)</f>
         <v>36434</v>
@@ -4023,7 +4027,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -4048,7 +4052,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -4069,7 +4073,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>70</v>
       </c>
@@ -4087,7 +4091,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f>EDATE(A16,1)</f>
         <v>36526</v>
@@ -4108,7 +4112,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f>EDATE(A18,1)</f>
         <v>36557</v>
@@ -4135,7 +4139,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4157,7 +4161,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>71</v>
@@ -4177,7 +4181,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f>EDATE(A19,1)</f>
         <v>36586</v>
@@ -4204,7 +4208,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -4224,7 +4228,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>36617</v>
@@ -4251,7 +4255,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>72</v>
@@ -4271,7 +4275,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36647</v>
@@ -4298,7 +4302,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -4320,7 +4324,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>73</v>
@@ -4340,7 +4344,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f>EDATE(A26,1)</f>
         <v>36678</v>
@@ -4365,7 +4369,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>74</v>
@@ -4385,7 +4389,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f>EDATE(A29,1)</f>
         <v>36708</v>
@@ -4410,7 +4414,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" ref="A32" si="1">EDATE(A31,1)</f>
         <v>36739</v>
@@ -4435,7 +4439,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>61</v>
@@ -4457,7 +4461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f>EDATE(A32,1)</f>
         <v>36770</v>
@@ -4484,7 +4488,7 @@
         <v>47386</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4504,7 +4508,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -4524,7 +4528,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36800</v>
@@ -4551,7 +4555,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -4573,7 +4577,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4593,7 +4597,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f>EDATE(A37,1)</f>
         <v>36831</v>
@@ -4618,7 +4622,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f>EDATE(A40,1)</f>
         <v>36861</v>
@@ -4643,7 +4647,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>78</v>
       </c>
@@ -4661,7 +4665,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>36892</v>
@@ -4686,7 +4690,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f>EDATE(A43,1)</f>
         <v>36923</v>
@@ -4707,7 +4711,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" ref="A45:A54" si="2">EDATE(A44,1)</f>
         <v>36951</v>
@@ -4734,7 +4738,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -4756,7 +4760,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>79</v>
@@ -4778,7 +4782,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f>EDATE(A45,1)</f>
         <v>36982</v>
@@ -4799,7 +4803,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4824,7 +4828,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4845,7 +4849,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4866,7 +4870,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4893,7 +4897,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4914,7 +4918,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -4941,7 +4945,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>50</v>
@@ -4963,7 +4967,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>37196</v>
@@ -4984,7 +4988,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f>EDATE(A56,1)</f>
         <v>37226</v>
@@ -5009,7 +5013,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>81</v>
       </c>
@@ -5027,7 +5031,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>37257</v>
@@ -5054,7 +5058,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -5076,7 +5080,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f>EDATE(A59,1)</f>
         <v>37288</v>
@@ -5103,7 +5107,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f t="shared" ref="A62:A75" si="3">EDATE(A61,1)</f>
         <v>37316</v>
@@ -5124,7 +5128,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -5151,7 +5155,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>55</v>
@@ -5173,7 +5177,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>61</v>
@@ -5195,7 +5199,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f>EDATE(A63,1)</f>
         <v>37377</v>
@@ -5222,7 +5226,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -5243,7 +5247,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -5270,7 +5274,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>61</v>
@@ -5292,7 +5296,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>37469</v>
@@ -5319,7 +5323,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>61</v>
@@ -5341,7 +5345,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37500</v>
@@ -5368,7 +5372,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5389,7 +5393,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>37561</v>
@@ -5416,7 +5420,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -5437,7 +5441,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>83</v>
       </c>
@@ -5455,7 +5459,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f>EDATE(A75,1)</f>
         <v>37622</v>
@@ -5482,7 +5486,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f>EDATE(A77,1)</f>
         <v>37653</v>
@@ -5509,7 +5513,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" ref="A79:A88" si="4">EDATE(A78,1)</f>
         <v>37681</v>
@@ -5536,7 +5540,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="4"/>
         <v>37712</v>
@@ -5563,7 +5567,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -5588,7 +5592,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -5609,7 +5613,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -5630,7 +5634,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -5651,7 +5655,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -5672,7 +5676,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5697,7 +5701,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5718,7 +5722,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5745,7 +5749,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>88</v>
       </c>
@@ -5763,7 +5767,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>37987</v>
@@ -5784,7 +5788,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f>EDATE(A90,1)</f>
         <v>38018</v>
@@ -5805,7 +5809,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f t="shared" ref="A92:A102" si="5">EDATE(A91,1)</f>
         <v>38047</v>
@@ -5832,7 +5836,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -5857,7 +5861,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -5882,7 +5886,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="5"/>
         <v>38139</v>
@@ -5907,7 +5911,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f>EDATE(A95,1)</f>
         <v>38169</v>
@@ -5934,7 +5938,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>92</v>
@@ -5954,7 +5958,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>47</v>
@@ -5974,7 +5978,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <f>EDATE(A96,1)</f>
         <v>38200</v>
@@ -6001,7 +6005,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>73</v>
@@ -6021,7 +6025,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f>EDATE(A99,1)</f>
         <v>38231</v>
@@ -6046,7 +6050,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f t="shared" si="5"/>
         <v>38261</v>
@@ -6073,7 +6077,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>50</v>
@@ -6095,7 +6099,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>94</v>
@@ -6115,7 +6119,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>38292</v>
@@ -6142,7 +6146,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>95</v>
@@ -6162,7 +6166,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f>EDATE(A105,1)</f>
         <v>38322</v>
@@ -6189,7 +6193,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6211,7 +6215,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>96</v>
@@ -6231,7 +6235,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
         <v>97</v>
       </c>
@@ -6249,7 +6253,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f>EDATE(A107,1)</f>
         <v>38353</v>
@@ -6276,7 +6280,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>98</v>
@@ -6296,7 +6300,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>38384</v>
@@ -6323,7 +6327,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6343,7 +6347,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>38412</v>
@@ -6370,7 +6374,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>100</v>
@@ -6390,7 +6394,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>38443</v>
@@ -6417,7 +6421,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>101</v>
@@ -6441,7 +6445,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6461,7 +6465,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>38473</v>
@@ -6490,7 +6494,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6512,7 +6516,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>104</v>
@@ -6532,7 +6536,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f>EDATE(A120,1)</f>
         <v>38504</v>
@@ -6559,7 +6563,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f t="shared" ref="A124:A131" si="6">EDATE(A123,1)</f>
         <v>38534</v>
@@ -6586,7 +6590,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>47</v>
@@ -6606,7 +6610,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>106</v>
@@ -6628,7 +6632,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>107</v>
@@ -6650,7 +6654,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f>EDATE(A124,1)</f>
         <v>38565</v>
@@ -6671,7 +6675,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6698,7 +6702,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="6"/>
         <v>38626</v>
@@ -6719,7 +6723,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f t="shared" si="6"/>
         <v>38657</v>
@@ -6740,7 +6744,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f>EDATE(A131,1)</f>
         <v>38687</v>
@@ -6761,7 +6765,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>109</v>
       </c>
@@ -6779,7 +6783,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f>EDATE(A132,1)</f>
         <v>38718</v>
@@ -6800,7 +6804,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f>EDATE(A134,1)</f>
         <v>38749</v>
@@ -6821,7 +6825,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f t="shared" ref="A136:A145" si="7">EDATE(A135,1)</f>
         <v>38777</v>
@@ -6846,7 +6850,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -6867,7 +6871,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -6894,7 +6898,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -6915,7 +6919,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -6936,7 +6940,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -6961,7 +6965,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -6988,7 +6992,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -7009,7 +7013,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -7030,7 +7034,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -7055,7 +7059,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
         <v>110</v>
       </c>
@@ -7073,7 +7077,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="50" t="s">
         <v>111</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>39209</v>
       </c>
@@ -7121,7 +7125,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>55</v>
@@ -7143,7 +7147,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>56</v>
@@ -7165,7 +7169,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>55</v>
@@ -7187,7 +7191,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>113</v>
@@ -7207,7 +7211,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f>EDATE(A148,1)</f>
         <v>39240</v>
@@ -7232,7 +7236,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>50</v>
@@ -7254,7 +7258,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>39270</v>
@@ -7279,7 +7283,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>47</v>
@@ -7299,7 +7303,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>47</v>
@@ -7319,7 +7323,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>39301</v>
@@ -7344,7 +7348,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>39332</v>
@@ -7371,7 +7375,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>117</v>
@@ -7391,7 +7395,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="51"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>55</v>
@@ -7413,7 +7417,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>39362</v>
@@ -7440,7 +7444,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>118</v>
@@ -7460,7 +7464,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="51"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>39393</v>
@@ -7487,7 +7491,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>119</v>
@@ -7507,7 +7511,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="51"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <f t="shared" ref="A166" si="8">EDATE(A164,1)</f>
         <v>39423</v>
@@ -7534,7 +7538,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>55</v>
@@ -7556,7 +7560,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>121</v>
@@ -7576,7 +7580,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="47" t="s">
         <v>122</v>
       </c>
@@ -7594,7 +7598,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <f>EDATE(A166,1)</f>
         <v>39454</v>
@@ -7621,7 +7625,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -7641,7 +7645,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>55</v>
@@ -7663,7 +7667,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>55</v>
@@ -7685,7 +7689,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>55</v>
@@ -7707,7 +7711,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f>EDATE(A170,1)</f>
         <v>39485</v>
@@ -7734,7 +7738,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>52</v>
@@ -7756,7 +7760,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39514</v>
@@ -7783,7 +7787,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>47</v>
@@ -7803,7 +7807,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39545</v>
@@ -7828,7 +7832,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <f t="shared" ref="A180" si="9">EDATE(A179,1)</f>
         <v>39575</v>
@@ -7855,7 +7859,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>55</v>
@@ -7877,7 +7881,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>55</v>
@@ -7899,7 +7903,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>39606</v>
@@ -7924,7 +7928,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>103</v>
@@ -7948,7 +7952,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>123</v>
@@ -7968,7 +7972,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>39636</v>
@@ -7995,7 +7999,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>124</v>
@@ -8015,7 +8019,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="51"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>57</v>
@@ -8037,7 +8041,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>39667</v>
@@ -8064,7 +8068,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>125</v>
@@ -8084,7 +8088,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39698</v>
@@ -8109,7 +8113,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>126</v>
@@ -8133,7 +8137,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>127</v>
@@ -8153,7 +8157,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39728</v>
@@ -8180,7 +8184,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>128</v>
@@ -8200,7 +8204,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39759</v>
@@ -8227,7 +8231,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>55</v>
@@ -8249,7 +8253,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>52</v>
@@ -8271,7 +8275,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>129</v>
@@ -8291,7 +8295,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>39789</v>
@@ -8318,7 +8322,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>130</v>
@@ -8338,7 +8342,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>131</v>
       </c>
@@ -8356,7 +8360,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <f>EDATE(A200,1)</f>
         <v>39820</v>
@@ -8383,7 +8387,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8403,7 +8407,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>55</v>
@@ -8425,7 +8429,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>132</v>
@@ -8445,7 +8449,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="51"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f>EDATE(A203,1)</f>
         <v>39851</v>
@@ -8470,7 +8474,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>47</v>
@@ -8490,7 +8494,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -8510,7 +8514,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>133</v>
@@ -8530,7 +8534,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A207,1)</f>
         <v>39879</v>
@@ -8559,7 +8563,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>134</v>
@@ -8579,7 +8583,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>39910</v>
@@ -8606,7 +8610,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>135</v>
@@ -8626,7 +8630,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>39940</v>
@@ -8653,7 +8657,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>52</v>
@@ -8675,7 +8679,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>136</v>
@@ -8695,7 +8699,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f>EDATE(A215,1)</f>
         <v>39971</v>
@@ -8724,7 +8728,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>52</v>
@@ -8746,7 +8750,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>126</v>
@@ -8768,7 +8772,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>138</v>
@@ -8790,7 +8794,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>139</v>
@@ -8810,7 +8814,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A218,1)</f>
         <v>40001</v>
@@ -8837,7 +8841,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>140</v>
@@ -8857,7 +8861,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f>EDATE(A223,1)</f>
         <v>40032</v>
@@ -8882,7 +8886,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>47</v>
@@ -8902,7 +8906,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>141</v>
@@ -8922,7 +8926,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A225,1)</f>
         <v>40063</v>
@@ -8949,7 +8953,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>55</v>
@@ -8971,7 +8975,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>142</v>
@@ -8991,7 +8995,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <f>EDATE(A228,1)</f>
         <v>40093</v>
@@ -9018,7 +9022,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>143</v>
@@ -9038,7 +9042,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <f>EDATE(A231,1)</f>
         <v>40124</v>
@@ -9065,7 +9069,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>55</v>
@@ -9087,7 +9091,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>145</v>
@@ -9107,7 +9111,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f t="shared" ref="A236" si="10">EDATE(A233,1)</f>
         <v>40154</v>
@@ -9134,7 +9138,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>146</v>
@@ -9154,7 +9158,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="47" t="s">
         <v>147</v>
       </c>
@@ -9172,7 +9176,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>40185</v>
@@ -9197,7 +9201,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>148</v>
@@ -9217,7 +9221,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <f>EDATE(A239,1)</f>
         <v>40216</v>
@@ -9244,7 +9248,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9266,7 +9270,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>150</v>
@@ -9286,7 +9290,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EDATE(A241,1)</f>
         <v>40244</v>
@@ -9313,7 +9317,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>52</v>
@@ -9335,7 +9339,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>151</v>
@@ -9355,7 +9359,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f>EDATE(A244,1)</f>
         <v>40275</v>
@@ -9382,7 +9386,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>61</v>
@@ -9402,7 +9406,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>126</v>
@@ -9426,7 +9430,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>152</v>
@@ -9446,7 +9450,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="51"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f>EDATE(A247,1)</f>
         <v>40305</v>
@@ -9473,7 +9477,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>65</v>
@@ -9495,7 +9499,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>153</v>
@@ -9515,7 +9519,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>40336</v>
@@ -9544,7 +9548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>155</v>
@@ -9566,7 +9570,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40366</v>
@@ -9593,7 +9597,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>40397</v>
@@ -9620,7 +9624,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>158</v>
@@ -9640,7 +9644,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>40428</v>
@@ -9665,7 +9669,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <f>EDATE(A259,1)</f>
         <v>40458</v>
@@ -9690,7 +9694,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f t="shared" ref="A261" si="11">EDATE(A260,1)</f>
         <v>40489</v>
@@ -9717,7 +9721,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>161</v>
@@ -9737,7 +9741,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>40519</v>
@@ -9762,7 +9766,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="47" t="s">
         <v>163</v>
       </c>
@@ -9780,7 +9784,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EDATE(A263,1)</f>
         <v>40550</v>
@@ -9805,7 +9809,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A265,1)</f>
         <v>40581</v>
@@ -9832,7 +9836,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>52</v>
@@ -9854,7 +9858,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>165</v>
@@ -9874,7 +9878,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="51"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40609</v>
@@ -9901,7 +9905,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>55</v>
@@ -9923,7 +9927,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>47</v>
@@ -9943,7 +9947,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>166</v>
@@ -9963,7 +9967,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40640</v>
@@ -9990,7 +9994,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>167</v>
@@ -10010,7 +10014,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <f>EDATE(A273,1)</f>
         <v>40670</v>
@@ -10035,7 +10039,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>55</v>
@@ -10057,7 +10061,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>55</v>
@@ -10079,7 +10083,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>168</v>
@@ -10099,7 +10103,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <f>EDATE(A275,1)</f>
         <v>40701</v>
@@ -10126,7 +10130,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>47</v>
@@ -10146,7 +10150,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>169</v>
@@ -10166,7 +10170,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A279,1)</f>
         <v>40731</v>
@@ -10193,7 +10197,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>170</v>
@@ -10213,7 +10217,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A282,1)</f>
         <v>40762</v>
@@ -10240,7 +10244,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>138</v>
@@ -10264,7 +10268,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>171</v>
@@ -10284,7 +10288,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>40793</v>
@@ -10311,7 +10315,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>126</v>
@@ -10333,7 +10337,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>172</v>
@@ -10353,7 +10357,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f>EDATE(A287,1)</f>
         <v>40823</v>
@@ -10380,7 +10384,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>138</v>
@@ -10404,7 +10408,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>126</v>
@@ -10424,7 +10428,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>173</v>
@@ -10444,7 +10448,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f t="shared" ref="A294" si="12">EDATE(A290,1)</f>
         <v>40854</v>
@@ -10471,7 +10475,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>174</v>
@@ -10491,7 +10495,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <f>EDATE(A294,1)</f>
         <v>40884</v>
@@ -10518,7 +10522,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>175</v>
@@ -10538,7 +10542,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="47" t="s">
         <v>176</v>
       </c>
@@ -10556,7 +10560,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40915</v>
@@ -10583,7 +10587,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>103</v>
@@ -10607,7 +10611,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>177</v>
@@ -10629,7 +10633,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <f>EDATE(A299,1)</f>
         <v>40946</v>
@@ -10658,7 +10662,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>178</v>
@@ -10678,7 +10682,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A302,1)</f>
         <v>40975</v>
@@ -10707,7 +10711,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>61</v>
@@ -10729,7 +10733,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>179</v>
@@ -10749,7 +10753,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>41006</v>
@@ -10778,7 +10782,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>180</v>
@@ -10798,7 +10802,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>41036</v>
@@ -10825,7 +10829,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>181</v>
@@ -10845,7 +10849,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>50</v>
@@ -10867,7 +10871,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>108</v>
@@ -10889,7 +10893,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>41067</v>
@@ -10914,7 +10918,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A319" si="13">EDATE(A313,1)</f>
         <v>41097</v>
@@ -10939,7 +10943,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10961,7 +10965,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>184</v>
@@ -10981,7 +10985,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>41128</v>
@@ -11006,7 +11010,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f t="shared" si="13"/>
         <v>41159</v>
@@ -11031,7 +11035,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" si="13"/>
         <v>41189</v>
@@ -11058,7 +11062,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>55</v>
@@ -11080,7 +11084,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>187</v>
@@ -11100,7 +11104,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <f>EDATE(A319,1)</f>
         <v>41220</v>
@@ -11127,7 +11131,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>188</v>
@@ -11147,7 +11151,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A322,1)</f>
         <v>41250</v>
@@ -11176,7 +11180,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>189</v>
@@ -11196,7 +11200,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="47" t="s">
         <v>190</v>
       </c>
@@ -11214,7 +11218,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <f>EDATE(A324,1)</f>
         <v>41281</v>
@@ -11245,7 +11249,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>192</v>
@@ -11265,7 +11269,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A327,1)</f>
         <v>41312</v>
@@ -11292,7 +11296,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>188</v>
@@ -11312,7 +11316,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="51"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>41340</v>
@@ -11339,7 +11343,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>77</v>
@@ -11359,7 +11363,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>41371</v>
@@ -11386,7 +11390,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>193</v>
@@ -11406,7 +11410,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>41401</v>
@@ -11433,7 +11437,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>194</v>
@@ -11453,7 +11457,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <f>EDATE(A335,1)</f>
         <v>41432</v>
@@ -11480,7 +11484,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>150</v>
@@ -11500,7 +11504,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f>EDATE(A337,1)</f>
         <v>41462</v>
@@ -11525,7 +11529,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <f t="shared" ref="A340" si="14">EDATE(A339,1)</f>
         <v>41493</v>
@@ -11552,7 +11556,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>196</v>
@@ -11572,7 +11576,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="51"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <f>EDATE(A340,1)</f>
         <v>41524</v>
@@ -11599,7 +11603,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>197</v>
@@ -11619,7 +11623,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="51"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f>EDATE(A342,1)</f>
         <v>41554</v>
@@ -11646,7 +11650,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>50</v>
@@ -11668,7 +11672,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>198</v>
@@ -11688,7 +11692,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <f>EDATE(A344,1)</f>
         <v>41585</v>
@@ -11715,7 +11719,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>183</v>
@@ -11735,7 +11739,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>199</v>
@@ -11755,7 +11759,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A347,1)</f>
         <v>41615</v>
@@ -11782,7 +11786,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>200</v>
@@ -11802,7 +11806,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="47" t="s">
         <v>201</v>
       </c>
@@ -11820,7 +11824,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A350,1)</f>
         <v>41646</v>
@@ -11847,7 +11851,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>52</v>
@@ -11869,7 +11873,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>202</v>
@@ -11889,7 +11893,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A353,1)</f>
         <v>41677</v>
@@ -11916,7 +11920,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>144</v>
@@ -11938,7 +11942,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>55</v>
@@ -11960,7 +11964,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>144</v>
@@ -11982,7 +11986,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>203</v>
@@ -12002,7 +12006,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f>EDATE(A356,1)</f>
         <v>41705</v>
@@ -12027,7 +12031,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f t="shared" ref="A362:A363" si="15">EDATE(A361,1)</f>
         <v>41736</v>
@@ -12052,7 +12056,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <f t="shared" si="15"/>
         <v>41766</v>
@@ -12079,7 +12083,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>206</v>
@@ -12099,7 +12103,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>41797</v>
@@ -12126,7 +12130,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>55</v>
@@ -12148,7 +12152,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>208</v>
@@ -12168,7 +12172,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41827</v>
@@ -12195,7 +12199,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>61</v>
@@ -12217,7 +12221,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>47</v>
@@ -12237,7 +12241,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>209</v>
@@ -12257,7 +12261,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A368,1)</f>
         <v>41858</v>
@@ -12284,7 +12288,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>210</v>
@@ -12304,7 +12308,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41889</v>
@@ -12329,7 +12333,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>101</v>
@@ -12353,7 +12357,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>211</v>
@@ -12373,7 +12377,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <f>EDATE(A374,1)</f>
         <v>41919</v>
@@ -12400,7 +12404,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>212</v>
@@ -12420,7 +12424,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>41950</v>
@@ -12447,7 +12451,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>103</v>
@@ -12471,7 +12475,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>48</v>
@@ -12491,7 +12495,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>213</v>
@@ -12511,7 +12515,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <f>EDATE(A379,1)</f>
         <v>41980</v>
@@ -12536,7 +12540,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="47" t="s">
         <v>215</v>
       </c>
@@ -12554,7 +12558,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f>EDATE(A383,1)</f>
         <v>42011</v>
@@ -12581,7 +12585,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>55</v>
@@ -12603,7 +12607,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>216</v>
@@ -12623,7 +12627,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f>EDATE(A385,1)</f>
         <v>42042</v>
@@ -12650,7 +12654,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>55</v>
@@ -12672,7 +12676,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>217</v>
@@ -12692,7 +12696,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>42070</v>
@@ -12719,7 +12723,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>218</v>
@@ -12739,7 +12743,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42101</v>
@@ -12764,7 +12768,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>219</v>
@@ -12784,7 +12788,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42131</v>
@@ -12811,7 +12815,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>220</v>
@@ -12831,7 +12835,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42162</v>
@@ -12858,7 +12862,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>55</v>
@@ -12880,7 +12884,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>221</v>
@@ -12900,7 +12904,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <f>EDATE(A397,1)</f>
         <v>42192</v>
@@ -12929,7 +12933,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>222</v>
@@ -12949,7 +12953,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f>EDATE(A400,1)</f>
         <v>42223</v>
@@ -12978,7 +12982,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -13000,7 +13004,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>223</v>
@@ -13020,7 +13024,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42254</v>
@@ -13045,7 +13049,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f t="shared" ref="A406:A407" si="16">EDATE(A405,1)</f>
         <v>42284</v>
@@ -13070,7 +13074,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <f t="shared" si="16"/>
         <v>42315</v>
@@ -13097,7 +13101,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>226</v>
@@ -13117,7 +13121,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f>EDATE(A407,1)</f>
         <v>42345</v>
@@ -13144,7 +13148,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="47"/>
       <c r="B410" s="20" t="s">
         <v>227</v>
@@ -13164,7 +13168,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="47" t="s">
         <v>228</v>
       </c>
@@ -13182,7 +13186,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42376</v>
@@ -13207,7 +13211,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EDATE(A412,1)</f>
         <v>42407</v>
@@ -13234,7 +13238,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>56</v>
@@ -13256,7 +13260,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -13278,7 +13282,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>231</v>
@@ -13298,7 +13302,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EDATE(A413,1)</f>
         <v>42436</v>
@@ -13323,7 +13327,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A432" si="17">EDATE(A417,1)</f>
         <v>42467</v>
@@ -13348,7 +13352,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13370,7 +13374,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>233</v>
@@ -13390,7 +13394,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <f>EDATE(A418,1)</f>
         <v>42497</v>
@@ -13415,7 +13419,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f t="shared" si="17"/>
         <v>42528</v>
@@ -13444,7 +13448,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>235</v>
@@ -13464,7 +13468,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>42558</v>
@@ -13491,7 +13495,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>236</v>
@@ -13511,7 +13515,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <f>EDATE(A424,1)</f>
         <v>42589</v>
@@ -13536,7 +13540,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>237</v>
@@ -13556,7 +13560,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f>EDATE(A426,1)</f>
         <v>42620</v>
@@ -13583,7 +13587,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>55</v>
@@ -13605,7 +13609,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>238</v>
@@ -13625,7 +13629,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>42650</v>
@@ -13650,7 +13654,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f t="shared" si="17"/>
         <v>42681</v>
@@ -13675,7 +13679,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <f>EDATE(A432,1)</f>
         <v>42711</v>
@@ -13702,7 +13706,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="47"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -13722,7 +13726,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="47"/>
       <c r="B435" s="20" t="s">
         <v>74</v>
@@ -13742,7 +13746,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="47" t="s">
         <v>241</v>
       </c>
@@ -13760,7 +13764,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23">
         <f>EDATE(A433,1)</f>
         <v>42742</v>
@@ -13787,7 +13791,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23" t="s">
         <v>242</v>
       </c>
@@ -13809,7 +13813,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f>EDATE(A437,1)</f>
         <v>42773</v>
@@ -13836,7 +13840,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>243</v>
@@ -13856,7 +13860,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f>EDATE(A439,1)</f>
         <v>42801</v>
@@ -13883,7 +13887,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -13903,7 +13907,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>244</v>
@@ -13923,7 +13927,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f>EDATE(A441,1)</f>
         <v>42832</v>
@@ -13950,7 +13954,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -13970,7 +13974,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>55</v>
@@ -13992,7 +13996,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>245</v>
@@ -14012,7 +14016,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>55</v>
@@ -14034,7 +14038,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f>EDATE(A444,1)</f>
         <v>42862</v>
@@ -14059,7 +14063,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <f t="shared" ref="A450:A459" si="18">EDATE(A449,1)</f>
         <v>42893</v>
@@ -14084,7 +14088,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <f t="shared" si="18"/>
         <v>42923</v>
@@ -14111,7 +14115,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>47</v>
@@ -14131,7 +14135,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>55</v>
@@ -14153,7 +14157,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>52</v>
@@ -14175,7 +14179,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>52</v>
@@ -14197,7 +14201,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>247</v>
@@ -14217,7 +14221,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23">
         <f>EDATE(A451,1)</f>
         <v>42954</v>
@@ -14242,7 +14246,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <f t="shared" si="18"/>
         <v>42985</v>
@@ -14263,7 +14267,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <f t="shared" si="18"/>
         <v>43015</v>
@@ -14290,7 +14294,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>55</v>
@@ -14312,7 +14316,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>184</v>
@@ -14332,7 +14336,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f>EDATE(A459,1)</f>
         <v>43046</v>
@@ -14353,7 +14357,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f>EDATE(A462,1)</f>
         <v>43076</v>
@@ -14380,7 +14384,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="47"/>
       <c r="B464" s="20" t="s">
         <v>126</v>
@@ -14404,7 +14408,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="47" t="s">
         <v>249</v>
       </c>
@@ -14422,7 +14426,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>43107</v>
@@ -14447,7 +14451,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>55</v>
@@ -14469,7 +14473,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>250</v>
@@ -14491,7 +14495,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>43138</v>
@@ -14516,7 +14520,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <f t="shared" ref="A470:A485" si="19">EDATE(A469,1)</f>
         <v>43166</v>
@@ -14537,7 +14541,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <f t="shared" si="19"/>
         <v>43197</v>
@@ -14558,7 +14562,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <f t="shared" si="19"/>
         <v>43227</v>
@@ -14583,7 +14587,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23">
         <f t="shared" si="19"/>
         <v>43258</v>
@@ -14608,7 +14612,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23">
         <f t="shared" si="19"/>
         <v>43288</v>
@@ -14635,7 +14639,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>99</v>
@@ -14655,7 +14659,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23">
         <f>EDATE(A474,1)</f>
         <v>43319</v>
@@ -14682,7 +14686,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>47</v>
@@ -14702,7 +14706,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>253</v>
@@ -14722,7 +14726,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23">
         <f>EDATE(A476,1)</f>
         <v>43350</v>
@@ -14749,7 +14753,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>55</v>
@@ -14771,7 +14775,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>254</v>
@@ -14791,7 +14795,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>43380</v>
@@ -14816,7 +14820,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>255</v>
@@ -14836,7 +14840,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>43411</v>
@@ -14861,7 +14865,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <f t="shared" si="19"/>
         <v>43441</v>
@@ -14886,7 +14890,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="47" t="s">
         <v>258</v>
       </c>
@@ -14904,7 +14908,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23">
         <f>EDATE(A485,1)</f>
         <v>43472</v>
@@ -14929,7 +14933,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>55</v>
@@ -14951,7 +14955,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>259</v>
@@ -14971,7 +14975,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f>EDATE(A487,1)</f>
         <v>43503</v>
@@ -14998,7 +15002,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>74</v>
@@ -15018,7 +15022,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23">
         <f>EDATE(A490,1)</f>
         <v>43531</v>
@@ -15043,7 +15047,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23">
         <f t="shared" ref="A493:A508" si="20">EDATE(A492,1)</f>
         <v>43562</v>
@@ -15068,7 +15072,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>55</v>
@@ -15090,7 +15094,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>52</v>
@@ -15112,7 +15116,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23"/>
       <c r="B496" s="20" t="s">
         <v>55</v>
@@ -15134,7 +15138,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>260</v>
@@ -15154,7 +15158,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23">
         <f>EDATE(A493,1)</f>
         <v>43592</v>
@@ -15181,7 +15185,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>61</v>
@@ -15203,7 +15207,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>261</v>
@@ -15223,7 +15227,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23">
         <f>EDATE(A498,1)</f>
         <v>43623</v>
@@ -15248,7 +15252,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>262</v>
@@ -15268,7 +15272,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23">
         <f>EDATE(A501,1)</f>
         <v>43653</v>
@@ -15295,7 +15299,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
         <v>55</v>
@@ -15317,7 +15321,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>55</v>
@@ -15339,7 +15343,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23"/>
       <c r="B506" s="20" t="s">
         <v>263</v>
@@ -15359,7 +15363,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="51"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="23">
         <f>EDATE(A503,1)</f>
         <v>43684</v>
@@ -15384,7 +15388,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23">
         <f t="shared" si="20"/>
         <v>43715</v>
@@ -15411,7 +15415,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>151</v>
@@ -15431,7 +15435,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23">
         <f>EDATE(A508,1)</f>
         <v>43745</v>
@@ -15458,7 +15462,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>55</v>
@@ -15480,7 +15484,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>52</v>
@@ -15502,7 +15506,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>55</v>
@@ -15524,7 +15528,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="23"/>
       <c r="B514" s="20" t="s">
         <v>210</v>
@@ -15544,7 +15548,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="23">
         <f>EDATE(A510,1)</f>
         <v>43776</v>
@@ -15571,7 +15575,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>52</v>
@@ -15593,7 +15597,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>265</v>
@@ -15613,7 +15617,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="23">
         <f>EDATE(A515,1)</f>
         <v>43806</v>
@@ -15640,7 +15644,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="47" t="s">
         <v>266</v>
       </c>
@@ -15658,7 +15662,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="23">
         <f>EDATE(A518,1)</f>
         <v>43837</v>
@@ -15685,7 +15689,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>267</v>
@@ -15705,7 +15709,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="23">
         <f>EDATE(A520,1)</f>
         <v>43868</v>
@@ -15728,7 +15732,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="23">
         <f t="shared" ref="A523:A533" si="21">EDATE(A522,1)</f>
         <v>43897</v>
@@ -15749,7 +15753,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="23">
         <f t="shared" si="21"/>
         <v>43928</v>
@@ -15770,7 +15774,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="23">
         <f t="shared" si="21"/>
         <v>43958</v>
@@ -15791,7 +15795,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="23">
         <f t="shared" si="21"/>
         <v>43989</v>
@@ -15812,7 +15816,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="23">
         <f t="shared" si="21"/>
         <v>44019</v>
@@ -15833,7 +15837,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="23">
         <f t="shared" si="21"/>
         <v>44050</v>
@@ -15854,7 +15858,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="23">
         <f t="shared" si="21"/>
         <v>44081</v>
@@ -15881,7 +15885,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="23"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15901,7 +15905,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="23">
         <f>EDATE(A529,1)</f>
         <v>44111</v>
@@ -15926,7 +15930,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="23">
         <f t="shared" si="21"/>
         <v>44142</v>
@@ -15947,7 +15951,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="23">
         <f t="shared" si="21"/>
         <v>44172</v>
@@ -15974,7 +15978,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="47" t="s">
         <v>45</v>
       </c>
@@ -15992,7 +15996,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="39">
         <v>44197</v>
       </c>
@@ -16016,7 +16020,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="39">
         <v>44228</v>
       </c>
@@ -16040,7 +16044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="39"/>
       <c r="B537" s="20" t="s">
         <v>50</v>
@@ -16062,7 +16066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="39">
         <v>44256</v>
       </c>
@@ -16082,7 +16086,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="39">
         <v>44287</v>
       </c>
@@ -16108,7 +16112,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="39">
         <v>44317</v>
       </c>
@@ -16128,7 +16132,7 @@
       <c r="J540" s="12"/>
       <c r="K540" s="15"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="39">
         <v>44348</v>
       </c>
@@ -16148,7 +16152,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="39">
         <v>44378</v>
       </c>
@@ -16174,7 +16178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="39">
         <v>44409</v>
       </c>
@@ -16194,7 +16198,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="39">
         <v>44440</v>
       </c>
@@ -16214,7 +16218,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="39">
         <v>44470</v>
       </c>
@@ -16240,7 +16244,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="39">
         <v>44501</v>
       </c>
@@ -16266,7 +16270,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="39">
         <v>44531</v>
       </c>
@@ -16292,7 +16296,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="47" t="s">
         <v>46</v>
       </c>
@@ -16310,7 +16314,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="39">
         <v>44562</v>
       </c>
@@ -16336,7 +16340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="39">
         <v>44593</v>
       </c>
@@ -16362,7 +16366,7 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="39">
         <v>44621</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="39"/>
       <c r="B552" s="20" t="s">
         <v>260</v>
@@ -16406,7 +16410,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="48"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="39">
         <v>44652</v>
       </c>
@@ -16432,7 +16436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="39"/>
       <c r="B554" s="20" t="s">
         <v>410</v>
@@ -16452,7 +16456,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="39">
         <v>44682</v>
       </c>
@@ -16476,7 +16480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="39"/>
       <c r="B556" s="20" t="s">
         <v>409</v>
@@ -16496,7 +16500,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="39">
         <v>44713</v>
       </c>
@@ -16522,7 +16526,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="39"/>
       <c r="B558" s="20" t="s">
         <v>408</v>
@@ -16542,7 +16546,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="48"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="39">
         <v>44743</v>
       </c>
@@ -16568,7 +16572,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="39"/>
       <c r="B560" s="20" t="s">
         <v>61</v>
@@ -16590,7 +16594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="39"/>
       <c r="B561" s="20" t="s">
         <v>407</v>
@@ -16610,7 +16614,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="39">
         <v>44774</v>
       </c>
@@ -16636,7 +16640,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="39"/>
       <c r="B563" s="20" t="s">
         <v>405</v>
@@ -16656,7 +16660,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="48"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="39"/>
       <c r="B564" s="20" t="s">
         <v>406</v>
@@ -16676,7 +16680,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="48"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="39">
         <v>44805</v>
       </c>
@@ -16702,7 +16706,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="39"/>
       <c r="B566" s="20" t="s">
         <v>55</v>
@@ -16724,7 +16728,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="39"/>
       <c r="B567" s="20" t="s">
         <v>404</v>
@@ -16744,7 +16748,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="48"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="39">
         <v>44835</v>
       </c>
@@ -16768,7 +16772,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="39">
         <v>44866</v>
       </c>
@@ -16794,7 +16798,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="39"/>
       <c r="B570" s="20" t="s">
         <v>61</v>
@@ -16816,7 +16820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="39"/>
       <c r="B571" s="20" t="s">
         <v>402</v>
@@ -16836,7 +16840,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="39">
         <v>44896</v>
       </c>
@@ -16862,7 +16866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="39"/>
       <c r="B573" s="20" t="s">
         <v>401</v>
@@ -16882,7 +16886,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="47" t="s">
         <v>67</v>
       </c>
@@ -16900,7 +16904,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="39">
         <v>44927</v>
       </c>
@@ -16926,7 +16930,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="39">
         <v>44958</v>
       </c>
@@ -16952,7 +16956,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="39"/>
       <c r="B577" s="20" t="s">
         <v>47</v>
@@ -16972,7 +16976,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="39">
         <v>44986</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="39">
         <v>45017</v>
       </c>
@@ -17016,7 +17020,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="39">
         <v>45047</v>
       </c>
@@ -17042,7 +17046,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="39"/>
       <c r="B581" s="20" t="s">
         <v>52</v>
@@ -17064,7 +17068,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="39"/>
       <c r="B582" s="20" t="s">
         <v>55</v>
@@ -17086,7 +17090,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="39">
         <v>45078</v>
       </c>
@@ -17112,7 +17116,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="39"/>
       <c r="B584" s="20" t="s">
         <v>55</v>
@@ -17134,7 +17138,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="39">
         <v>45108</v>
       </c>
@@ -17160,7 +17164,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="39">
         <v>45139</v>
       </c>
@@ -17186,7 +17190,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="39"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -17208,20 +17212,22 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="39">
         <v>45170</v>
       </c>
       <c r="B588" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C588" s="13"/>
+      <c r="C588" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D588" s="38"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G588" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H588" s="38">
         <v>1</v>
@@ -17232,47 +17238,53 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="39">
         <v>45200</v>
       </c>
       <c r="B589" s="20"/>
-      <c r="C589" s="13"/>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="38"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H589" s="38"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="39">
         <v>45231</v>
       </c>
       <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="38"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H590" s="38"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="39">
         <v>45261</v>
       </c>
-      <c r="B591" s="20"/>
+      <c r="B591" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C591" s="13"/>
       <c r="D591" s="38"/>
       <c r="E591" s="9"/>
@@ -17284,11 +17296,13 @@
       <c r="H591" s="38"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="39">
-        <v>45292</v>
+      <c r="K591" s="48">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A592" s="47" t="s">
+        <v>411</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17304,9 +17318,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17322,9 +17336,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17340,9 +17354,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17358,9 +17372,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17376,9 +17390,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17394,9 +17408,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17412,9 +17426,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17430,9 +17444,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17448,9 +17462,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17466,9 +17480,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17484,9 +17498,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17502,9 +17516,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17520,9 +17534,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17538,9 +17552,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17556,9 +17570,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17574,9 +17588,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17592,9 +17606,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17610,9 +17624,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17628,9 +17642,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17646,9 +17660,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17664,9 +17678,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17682,9 +17696,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17700,9 +17714,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17718,9 +17732,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17736,9 +17750,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17754,9 +17768,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17772,9 +17786,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17790,9 +17804,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17808,9 +17822,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17826,9 +17840,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17844,9 +17858,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17862,9 +17876,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17880,9 +17894,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17898,9 +17912,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17916,9 +17930,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17934,9 +17948,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17952,9 +17966,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17970,9 +17984,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17988,9 +18002,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18006,9 +18020,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18024,9 +18038,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18042,9 +18056,9 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18060,9 +18074,9 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18078,9 +18092,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18096,9 +18110,9 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18114,9 +18128,9 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18132,9 +18146,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18150,9 +18164,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="39">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18168,9 +18182,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="39">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18186,9 +18200,9 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="39">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18204,9 +18218,9 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="39">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18222,9 +18236,9 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="39">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18240,9 +18254,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="39">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18258,9 +18272,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="39">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18276,9 +18290,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="39">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18294,9 +18308,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="39">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18312,9 +18326,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="39">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18330,9 +18344,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="39">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18348,9 +18362,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="39">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18366,9 +18380,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="39">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18384,9 +18398,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="39">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18402,9 +18416,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="39">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18420,9 +18434,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="39">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18438,9 +18452,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="39">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18456,9 +18470,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="39">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18474,9 +18488,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="39">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18492,9 +18506,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="39">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18510,9 +18524,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="39">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18528,9 +18542,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="39">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18546,9 +18560,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="39">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18564,9 +18578,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="39">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18582,8 +18596,10 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="39"/>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A664" s="39">
+        <v>47453</v>
+      </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
       <c r="D664" s="38"/>
@@ -18598,7 +18614,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="39"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18614,7 +18630,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="39"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18630,7 +18646,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="39"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18646,7 +18662,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="39"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18662,7 +18678,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="39"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18678,7 +18694,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="39"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18694,7 +18710,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="39"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18710,7 +18726,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="39"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18726,21 +18742,37 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="40"/>
-      <c r="B673" s="15"/>
-      <c r="C673" s="41"/>
-      <c r="D673" s="42"/>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A673" s="39"/>
+      <c r="B673" s="20"/>
+      <c r="C673" s="13"/>
+      <c r="D673" s="38"/>
       <c r="E673" s="9"/>
-      <c r="F673" s="15"/>
+      <c r="F673" s="20"/>
       <c r="G673" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H673" s="42"/>
+      <c r="H673" s="38"/>
       <c r="I673" s="9"/>
-      <c r="J673" s="12"/>
-      <c r="K673" s="15"/>
+      <c r="J673" s="11"/>
+      <c r="K673" s="20"/>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A674" s="40"/>
+      <c r="B674" s="15"/>
+      <c r="C674" s="41"/>
+      <c r="D674" s="42"/>
+      <c r="E674" s="9"/>
+      <c r="F674" s="15"/>
+      <c r="G674" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H674" s="42"/>
+      <c r="I674" s="9"/>
+      <c r="J674" s="12"/>
+      <c r="K674" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -18756,10 +18788,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18782,28 +18814,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>32</v>
       </c>
@@ -18816,7 +18848,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18845,7 +18877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18869,17 +18901,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18900,7 +18932,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18927,7 +18959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18953,7 +18985,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -18979,7 +19011,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -19005,7 +19037,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -19031,7 +19063,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -19057,7 +19089,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -19083,7 +19115,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -19109,7 +19141,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -19129,7 +19161,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -19149,7 +19181,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -19169,7 +19201,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -19190,7 +19222,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -19211,7 +19243,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -19232,7 +19264,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -19253,7 +19285,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -19274,7 +19306,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -19295,7 +19327,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -19316,7 +19348,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -19337,7 +19369,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -19358,7 +19390,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -19379,7 +19411,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -19400,7 +19432,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -19421,7 +19453,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -19442,7 +19474,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -19463,7 +19495,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -19484,7 +19516,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -19505,7 +19537,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -19526,7 +19558,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -19547,7 +19579,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -19568,7 +19600,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -19589,7 +19621,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -19598,7 +19630,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -19607,7 +19639,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -19616,7 +19648,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -19625,7 +19657,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -19634,7 +19666,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -19643,7 +19675,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -19652,7 +19684,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -19661,7 +19693,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -19670,7 +19702,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -19679,7 +19711,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -19688,7 +19720,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -19697,7 +19729,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -19706,7 +19738,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -19715,7 +19747,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -19724,7 +19756,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -19733,7 +19765,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -19742,7 +19774,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -19751,7 +19783,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19760,7 +19792,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19769,7 +19801,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19778,7 +19810,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19787,7 +19819,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19796,7 +19828,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19805,7 +19837,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19814,7 +19846,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19823,7 +19855,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19832,7 +19864,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19841,7 +19873,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19850,7 +19882,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
